--- a/data/IEEE9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF9F75-B207-4CFC-A066-81B03458C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF8330-B755-4060-8C8A-8C39B8894CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1965" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/IEEE9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF8330-B755-4060-8C8A-8C39B8894CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A947DB-CD7E-4D34-ADEE-A4BC96A9EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1965" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/IEEE9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF9F75-B207-4CFC-A066-81B03458C675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C5DAD-5F21-4D68-88F0-201F6676D858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.3521075249154243E-4</v>
+        <v>3.9201792081923741E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.1430273383926122</v>
+        <v>0.23837889732102033</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.833535933071226</v>
+        <v>4.722559888452043</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>7.3935139892109349</v>
+        <v>12.322523315351559</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>9.2267417939105769</v>
+        <v>15.377902989850961</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>10.248170887812012</v>
+        <v>17.080284813020018</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>10.438221175825181</v>
+        <v>17.397035293041966</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>10.246548413641765</v>
+        <v>17.077580689402939</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.7491007588918333</v>
+        <v>14.581834598153057</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.7816483039224646</v>
+        <v>9.6360805065374411</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.412524572551888</v>
+        <v>2.3542076209198135</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.1040504708786687E-2</v>
+        <v>1.8400841181311148E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>9.504434488433757E-4</v>
+        <v>1.5840724147389595E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>7.2723324494834045E-4</v>
+        <v>1.2120554082472343E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>2.3521075249154243E-4</v>
+        <v>3.9201792081923741E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.1430273383926122</v>
+        <v>0.23837889732102033</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.833535933071226</v>
+        <v>4.722559888452043</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>7.3935139892109349</v>
+        <v>12.322523315351559</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>9.2267417939105769</v>
+        <v>15.377902989850961</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>10.248170887812012</v>
+        <v>17.080284813020018</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>10.438221175825181</v>
+        <v>17.397035293041966</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>10.246548413641765</v>
+        <v>17.077580689402939</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>8.7491007588918333</v>
+        <v>14.581834598153057</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>5.7816483039224646</v>
+        <v>9.6360805065374411</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.412524572551888</v>
+        <v>2.3542076209198135</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>1.1040504708786687E-2</v>
+        <v>1.8400841181311148E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>9.504434488433757E-4</v>
+        <v>1.5840724147389595E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>7.2723324494834045E-4</v>
+        <v>1.2120554082472343E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>4.0881147540983604E-4</v>
+        <v>6.8135245901639334E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.11460061475409834</v>
+        <v>0.19100102459016391</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.2556065573770487</v>
+        <v>3.7593442622950812</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>5.3657581967213117</v>
+        <v>8.9429303278688526</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>7.2207122950819675</v>
+        <v>12.034520491803278</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>8.8559409836065566</v>
+        <v>14.75990163934426</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>10.517127049180328</v>
+        <v>17.528545081967213</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>8.7767735655737695</v>
+        <v>14.62795594262295</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>6.4491731557377046</v>
+        <v>10.748621926229509</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>3.0937475409836064</v>
+        <v>5.1562459016393438</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.64633094262295065</v>
+        <v>1.0772182377049178</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>4.1311475409836059E-3</v>
+        <v>6.885245901639343E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.8073770491803278E-3</v>
+        <v>3.0122950819672129E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>4.0881147540983604E-4</v>
+        <v>6.8135245901639334E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.11460061475409834</v>
+        <v>0.19100102459016391</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>2.2556065573770487</v>
+        <v>3.7593442622950812</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>5.3657581967213117</v>
+        <v>8.9429303278688526</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>7.2207122950819675</v>
+        <v>12.034520491803278</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>8.8559409836065566</v>
+        <v>14.75990163934426</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>10.517127049180328</v>
+        <v>17.528545081967213</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>8.7767735655737695</v>
+        <v>14.62795594262295</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>6.4491731557377046</v>
+        <v>10.748621926229509</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>3.0937475409836064</v>
+        <v>5.1562459016393438</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0.64633094262295065</v>
+        <v>1.0772182377049178</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>4.1311475409836059E-3</v>
+        <v>6.885245901639343E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.8073770491803278E-3</v>
+        <v>3.0122950819672129E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.12390850417615791</v>
+        <v>0.20651417362692986</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.7056734054669702</v>
+        <v>4.509455675778284</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.2993190015186018</v>
+        <v>10.498865002531003</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>9.0842539863325751</v>
+        <v>15.14042331055429</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>9.3517202923310521</v>
+        <v>15.586200487218422</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>8.87960563781321</v>
+        <v>14.799342729688684</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>6.9521307896734994</v>
+        <v>11.586884649455833</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>5.3553189066059215</v>
+        <v>8.9255315110098703</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>2.2723424449506453</v>
+        <v>3.7872374082510754</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.40117454441913436</v>
+        <v>0.66862424069855719</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>6.5110098709187552E-4</v>
+        <v>1.0851683118197925E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.12390850417615791</v>
+        <v>0.20651417362692986</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.7056734054669702</v>
+        <v>4.509455675778284</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>6.2993190015186018</v>
+        <v>10.498865002531003</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>9.0842539863325751</v>
+        <v>15.14042331055429</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>9.3517202923310521</v>
+        <v>15.586200487218422</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>8.87960563781321</v>
+        <v>14.799342729688684</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>6.9521307896734994</v>
+        <v>11.586884649455833</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>5.3553189066059215</v>
+        <v>8.9255315110098703</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>2.2723424449506453</v>
+        <v>3.7872374082510754</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.40117454441913436</v>
+        <v>0.66862424069855719</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>6.5110098709187552E-4</v>
+        <v>1.0851683118197925E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934352E-4</v>
+        <v>4.9394258023223914E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.17306307945506078</v>
+        <v>0.28843846575843463</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004564</v>
+        <v>5.9976510583340943</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821048</v>
+        <v>15.896055076803508</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>11.994764332083751</v>
+        <v>19.991273886806251</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>12.400286774252534</v>
+        <v>20.667144623754222</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>13.569687528572734</v>
+        <v>22.616145880954559</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>13.218047453597876</v>
+        <v>22.030079089329792</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>11.111357963792628</v>
+        <v>18.518929939654381</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246314</v>
+        <v>11.852379023041053</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153786</v>
+        <v>2.9663016023589646</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071227E-2</v>
+        <v>2.3185059888452045E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.178549876565786E-3</v>
+        <v>1.96424979427631E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.7995222638749201E-4</v>
+        <v>1.4665870439791533E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.9636554813934352E-4</v>
+        <v>4.9394258023223914E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.17306307945506078</v>
+        <v>0.28843846575843463</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>3.5985906350004564</v>
+        <v>5.9976510583340943</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>9.5376330460821048</v>
+        <v>15.896055076803508</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>11.994764332083751</v>
+        <v>19.991273886806251</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>12.400286774252534</v>
+        <v>20.667144623754222</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>13.569687528572734</v>
+        <v>22.616145880954559</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>13.218047453597876</v>
+        <v>22.030079089329792</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>11.111357963792628</v>
+        <v>18.518929939654381</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>7.1114274138246314</v>
+        <v>11.852379023041053</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.7797809614153786</v>
+        <v>2.9663016023589646</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.3911035933071227E-2</v>
+        <v>2.3185059888452045E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>1.178549876565786E-3</v>
+        <v>1.96424979427631E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>8.7995222638749201E-4</v>
+        <v>1.4665870439791533E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>5.1919057377049183E-4</v>
+        <v>8.6531762295081961E-4</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.14898079918032786</v>
+        <v>0.24830133196721307</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>2.9097324590163933</v>
+        <v>4.8495540983606551</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>6.9218280737704925</v>
+        <v>11.53638012295082</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>9.1703046147540981</v>
+        <v>15.283841024590163</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>11.512723278688524</v>
+        <v>19.18787213114754</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>13.672265163934425</v>
+        <v>22.787108606557375</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>11.409805635245901</v>
+        <v>19.016342725409835</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>7.8679912500000002</v>
+        <v>13.113318749999999</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>3.9290593770491804</v>
+        <v>6.5484322950819669</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.82730360655737689</v>
+        <v>1.3788393442622948</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.9986885245901624E-3</v>
+        <v>8.331147540983604E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>2.2049999999999999E-3</v>
+        <v>3.6749999999999999E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>5.1919057377049183E-4</v>
+        <v>8.6531762295081961E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.14898079918032786</v>
+        <v>0.24830133196721307</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>2.9097324590163933</v>
+        <v>4.8495540983606551</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>6.9218280737704925</v>
+        <v>11.53638012295082</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>9.1703046147540981</v>
+        <v>15.283841024590163</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>11.512723278688524</v>
+        <v>19.18787213114754</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>13.672265163934425</v>
+        <v>22.787108606557375</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>11.409805635245901</v>
+        <v>19.016342725409835</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>7.8679912500000002</v>
+        <v>13.113318749999999</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>3.9290593770491804</v>
+        <v>6.5484322950819669</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0.82730360655737689</v>
+        <v>1.3788393442622948</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.9986885245901624E-3</v>
+        <v>8.331147540983604E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>2.2049999999999999E-3</v>
+        <v>3.6749999999999999E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.15364654517843582</v>
+        <v>0.256077575297393</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.3279782887243732</v>
+        <v>5.5466304812072886</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>7.8111555618830657</v>
+        <v>13.018592603138442</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>11.537002562642369</v>
+        <v>19.228337604403951</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>12.063719177107057</v>
+        <v>20.106198628511763</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>10.655526765375852</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>8.551120871298405</v>
+        <v>14.251868118830673</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>6.8548082004555804</v>
+        <v>11.424680334092633</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>2.9313217539863325</v>
+        <v>4.8855362566438876</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.51751516230068328</v>
+        <v>0.86252527050113881</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>8.4643128321943816E-4</v>
+        <v>1.4107188053657303E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.15364654517843582</v>
+        <v>0.256077575297393</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>3.3279782887243732</v>
+        <v>5.5466304812072886</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>7.8111555618830657</v>
+        <v>13.018592603138442</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>11.537002562642369</v>
+        <v>19.228337604403951</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>12.063719177107057</v>
+        <v>20.106198628511763</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>10.655526765375852</v>
+        <v>17.75921127562642</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>8.551120871298405</v>
+        <v>14.251868118830673</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>6.8548082004555804</v>
+        <v>11.424680334092633</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>2.9313217539863325</v>
+        <v>4.8855362566438876</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0.51751516230068328</v>
+        <v>0.86252527050113881</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>8.4643128321943816E-4</v>
+        <v>1.4107188053657303E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>

--- a/data/IEEE9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D2497-1101-47E6-99FD-07303948ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6DE92-B4EA-4800-964C-4C461D6B949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3270" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/IEEE9/ieee9/ieee9_2030.xlsx
+++ b/data/IEEE9/ieee9/ieee9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6DE92-B4EA-4800-964C-4C461D6B949F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0584DA8-C22A-4F1A-BCF2-C4AB19F36690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3270" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9045" yWindow="5310" windowWidth="28800" windowHeight="15435" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
